--- a/Figures/Hierarchical Control.xlsx
+++ b/Figures/Hierarchical Control.xlsx
@@ -16,33 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>Master EMS (FMUWorld)</t>
-  </si>
-  <si>
-    <t>Electrolyser unit</t>
-  </si>
-  <si>
-    <t>HeatPump Unit</t>
-  </si>
-  <si>
-    <t>Grid/Electrical</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Wind Farm</t>
   </si>
   <si>
     <t>PV Farm</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Local optimization in OpenModelica to have the best grid support performance</t>
-  </si>
-  <si>
-    <t>Global optimization in FMUWorld to reduce operational cost with price signals</t>
   </si>
   <si>
     <t>Controller(s)</t>
@@ -54,10 +33,22 @@
     <t>Hierarchical EMS</t>
   </si>
   <si>
-    <t>Decisions to make: …</t>
+    <t>P2H</t>
   </si>
   <si>
-    <t>Exchange variables: …</t>
+    <t>P2G</t>
+  </si>
+  <si>
+    <t>Grid Support</t>
+  </si>
+  <si>
+    <t>Minimum Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Master EMS (EnergySim/PP)</t>
   </si>
 </sst>
 </file>
@@ -74,7 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -90,20 +81,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -118,15 +104,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -175,49 +152,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nötr" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -233,61 +242,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Düz Ok Bağlayıcısı 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="571500"/>
-          <a:ext cx="0" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -425,13 +386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -580,53 +541,6 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Düz Ok Bağlayıcısı 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="1097280"/>
-          <a:ext cx="0" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="Düz Ok Bağlayıcısı 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
@@ -661,13 +575,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -815,53 +729,6 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Düz Ok Bağlayıcısı 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="1645920"/>
-          <a:ext cx="0" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Düz Ok Bağlayıcısı 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
@@ -896,13 +763,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -941,29 +808,77 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>951</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Resim 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="10973751" cy="2011854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="123" name="Resim 122"/>
+            <xdr:cNvPr id="15" name="Resim 14"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$U$12" spid="_x0000_s1063"/>
+                  <a14:cameraTool cellRange="Sayfa1!$C$2:$L$12" spid="_x0000_s3076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -977,8 +892,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1828800" y="3291840"/>
-              <a:ext cx="11590020" cy="2019300"/>
+              <a:off x="609600" y="365760"/>
+              <a:ext cx="6103620" cy="2019300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1289,43 +1204,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:U12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1334,224 +1246,254 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="M5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="M7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="12"/>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="17">
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M9:U9"/>
-    <mergeCell ref="M10:U10"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="M8:U8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1559,22 +1501,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>